--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Zp3-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Zp3-Mertk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Zp3</t>
+  </si>
+  <si>
+    <t>Mertk</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Zp3</t>
-  </si>
-  <si>
-    <t>Mertk</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>0.497555</v>
       </c>
       <c r="I2">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N2">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O2">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P2">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q2">
-        <v>1.578842134122778</v>
+        <v>1.1560093359</v>
       </c>
       <c r="R2">
-        <v>14.209579207105</v>
+        <v>10.4040840231</v>
       </c>
       <c r="S2">
-        <v>0.06192170711984851</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="T2">
-        <v>0.06192170711984851</v>
+        <v>0.06638545261649674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.497555</v>
       </c>
       <c r="I3">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>10.193852</v>
       </c>
       <c r="O3">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P3">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q3">
         <v>0.5635557813177777</v>
@@ -638,10 +638,10 @@
         <v>5.072002031859999</v>
       </c>
       <c r="S3">
-        <v>0.02210248591816662</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="T3">
-        <v>0.02210248591816662</v>
+        <v>0.03236297878883258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,10 +670,10 @@
         <v>0.497555</v>
       </c>
       <c r="I4">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N4">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O4">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P4">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q4">
-        <v>5.811587575492221</v>
+        <v>6.672651725213332</v>
       </c>
       <c r="R4">
-        <v>52.30428817943</v>
+        <v>60.05386552691999</v>
       </c>
       <c r="S4">
-        <v>0.2279286927891141</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="T4">
-        <v>0.2279286927891141</v>
+        <v>0.3831863560043545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>0.497555</v>
       </c>
       <c r="I5">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N5">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O5">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P5">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q5">
-        <v>0.138785503925</v>
+        <v>0.1116495176316666</v>
       </c>
       <c r="R5">
-        <v>1.249069535325</v>
+        <v>1.004845658685</v>
       </c>
       <c r="S5">
-        <v>0.005443125148987277</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="T5">
-        <v>0.005443125148987277</v>
+        <v>0.006411629674790868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>0.497555</v>
       </c>
       <c r="I6">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N6">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O6">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P6">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q6">
-        <v>5.711510579037777</v>
+        <v>8.909727888938887</v>
       </c>
       <c r="R6">
-        <v>51.40359521134</v>
+        <v>80.18755100044999</v>
       </c>
       <c r="S6">
-        <v>0.224003703501107</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="T6">
-        <v>0.224003703501107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.140487</v>
-      </c>
-      <c r="H7">
-        <v>0.421461</v>
-      </c>
-      <c r="I7">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J7">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.519603666666667</v>
-      </c>
-      <c r="N7">
-        <v>28.558811</v>
-      </c>
-      <c r="O7">
-        <v>0.1143733649354437</v>
-      </c>
-      <c r="P7">
-        <v>0.1143733649354437</v>
-      </c>
-      <c r="Q7">
-        <v>1.337380560319</v>
-      </c>
-      <c r="R7">
-        <v>12.036425042871</v>
-      </c>
-      <c r="S7">
-        <v>0.05245165781559521</v>
-      </c>
-      <c r="T7">
-        <v>0.05245165781559522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.140487</v>
-      </c>
-      <c r="H8">
-        <v>0.421461</v>
-      </c>
-      <c r="I8">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J8">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3.397950666666667</v>
-      </c>
-      <c r="N8">
-        <v>10.193852</v>
-      </c>
-      <c r="O8">
-        <v>0.04082470922525111</v>
-      </c>
-      <c r="P8">
-        <v>0.04082470922525111</v>
-      </c>
-      <c r="Q8">
-        <v>0.477367895308</v>
-      </c>
-      <c r="R8">
-        <v>4.296311057772</v>
-      </c>
-      <c r="S8">
-        <v>0.01872222330708449</v>
-      </c>
-      <c r="T8">
-        <v>0.01872222330708449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.140487</v>
-      </c>
-      <c r="H9">
-        <v>0.421461</v>
-      </c>
-      <c r="I9">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J9">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>35.04087533333333</v>
-      </c>
-      <c r="N9">
-        <v>105.122626</v>
-      </c>
-      <c r="O9">
-        <v>0.4209989157626403</v>
-      </c>
-      <c r="P9">
-        <v>0.4209989157626403</v>
-      </c>
-      <c r="Q9">
-        <v>4.922787452954</v>
-      </c>
-      <c r="R9">
-        <v>44.305087076586</v>
-      </c>
-      <c r="S9">
-        <v>0.1930702229735262</v>
-      </c>
-      <c r="T9">
-        <v>0.1930702229735262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.140487</v>
-      </c>
-      <c r="H10">
-        <v>0.421461</v>
-      </c>
-      <c r="I10">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J10">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.836805</v>
-      </c>
-      <c r="N10">
-        <v>2.510415</v>
-      </c>
-      <c r="O10">
-        <v>0.01005380129216206</v>
-      </c>
-      <c r="P10">
-        <v>0.01005380129216206</v>
-      </c>
-      <c r="Q10">
-        <v>0.117560224035</v>
-      </c>
-      <c r="R10">
-        <v>1.058042016315</v>
-      </c>
-      <c r="S10">
-        <v>0.004610676143174779</v>
-      </c>
-      <c r="T10">
-        <v>0.004610676143174779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.140487</v>
-      </c>
-      <c r="H11">
-        <v>0.421461</v>
-      </c>
-      <c r="I11">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J11">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>34.43746266666667</v>
-      </c>
-      <c r="N11">
-        <v>103.312388</v>
-      </c>
-      <c r="O11">
-        <v>0.4137492087845029</v>
-      </c>
-      <c r="P11">
-        <v>0.4137492087845028</v>
-      </c>
-      <c r="Q11">
-        <v>4.838015817652001</v>
-      </c>
-      <c r="R11">
-        <v>43.542142358868</v>
-      </c>
-      <c r="S11">
-        <v>0.1897455052833959</v>
-      </c>
-      <c r="T11">
-        <v>0.1897455052833959</v>
+        <v>0.5116535829155253</v>
       </c>
     </row>
   </sheetData>
